--- a/Docs/RM Breakdown per JO 19-0002507.xlsx
+++ b/Docs/RM Breakdown per JO 19-0002507.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Desktop\LSPI ERP Report Project\GitHub Repo\ERPREPORTS\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E47562-904F-4F3C-980C-936E1174FB38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E9CE7-9701-4471-9E22-3DCBDEDBAF1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{65EC8B96-3376-4EE7-9F13-80408ED61691}"/>
+    <workbookView xWindow="17475" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{65EC8B96-3376-4EE7-9F13-80408ED61691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1364,11 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEBFC39-5EDD-4A51-B207-AF4521EA2118}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -9042,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>69</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -9517,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>132</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -9901,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -10190,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>132</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>146</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -11243,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>160</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>160</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -13005,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>185</v>
       </c>
@@ -13199,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>185</v>
       </c>
@@ -13295,13 +13294,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF124" xr:uid="{01A33D3A-251E-4050-99E1-2E7FC0974156}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AF124" xr:uid="{01A33D3A-251E-4050-99E1-2E7FC0974156}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13310,8 +13303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6572A1-F822-4DC7-9961-C6A3809C5500}">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13321,8 +13314,8 @@
     <col min="3" max="3" width="9.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
